--- a/src/test/resources/BookingData.xlsx
+++ b/src/test/resources/BookingData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D1299-8513-4EF3-9830-59816F546950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DCCE8-E2C9-4F7A-86CB-77C13A0704B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
+    <workbookView xWindow="5052" yWindow="3744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -52,6 +53,18 @@
   </si>
   <si>
     <t>Phòng mùa hè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa điểm </t>
+  </si>
+  <si>
+    <t>Nhận phòng</t>
+  </si>
+  <si>
+    <t>Trả phòng</t>
+  </si>
+  <si>
+    <t>Số khách</t>
   </si>
 </sst>
 </file>
@@ -98,12 +111,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E40D1DE-244C-42B8-97ED-ADAED0432D20}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +488,58 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6A08C5-A6AA-4549-896C-57F5EF282D7D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45931</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45945</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/BookingData.xlsx
+++ b/src/test/resources/BookingData.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DCCE8-E2C9-4F7A-86CB-77C13A0704B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D1299-8513-4EF3-9830-59816F546950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="3744" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
-    <sheet name="data2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -53,18 +52,6 @@
   </si>
   <si>
     <t>Phòng mùa hè</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa điểm </t>
-  </si>
-  <si>
-    <t>Nhận phòng</t>
-  </si>
-  <si>
-    <t>Trả phòng</t>
-  </si>
-  <si>
-    <t>Số khách</t>
   </si>
 </sst>
 </file>
@@ -111,13 +98,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E40D1DE-244C-42B8-97ED-ADAED0432D20}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -488,58 +474,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6A08C5-A6AA-4549-896C-57F5EF282D7D}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45931</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45945</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/BookingData.xlsx
+++ b/src/test/resources/BookingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D1299-8513-4EF3-9830-59816F546950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BD8A3F-1AFF-4F6B-8D77-C878BE6EE527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>blue299@gmail.com</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>blue299</t>
   </si>
   <si>
-    <t>Địa điểm</t>
-  </si>
-  <si>
-    <t>Phòng</t>
-  </si>
-  <si>
     <t>Đà Lạt</t>
   </si>
   <si>
     <t>Phòng mùa hè</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>diaDiem</t>
+  </si>
+  <si>
+    <t>phong</t>
   </si>
 </sst>
 </file>
@@ -62,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -71,7 +68,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -98,11 +95,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -123,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,58 +421,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E40D1DE-244C-42B8-97ED-ADAED0432D20}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{39DF870C-DC42-4E1B-AAF5-797254371C9B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{39DF870C-DC42-4E1B-AAF5-797254371C9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/BookingData.xlsx
+++ b/src/test/resources/BookingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\CapStone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BD8A3F-1AFF-4F6B-8D77-C878BE6EE527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48AB26-4826-4306-A9D4-90FE38136DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>blue299@gmail.com</t>
-  </si>
-  <si>
-    <t>blue299</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
+  </si>
+  <si>
+    <t>Phòng</t>
   </si>
   <si>
     <t>Đà Lạt</t>
@@ -39,16 +48,10 @@
     <t>Phòng mùa hè</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>diaDiem</t>
-  </si>
-  <si>
-    <t>phong</t>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>blue2999@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -95,16 +98,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -421,51 +419,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E40D1DE-244C-42B8-97ED-ADAED0432D20}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{39DF870C-DC42-4E1B-AAF5-797254371C9B}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{39DF870C-DC42-4E1B-AAF5-797254371C9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/BookingData.xlsx
+++ b/src/test/resources/BookingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\New folder (2)\Testing05_Nhom2-main\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D1299-8513-4EF3-9830-59816F546950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596D87C-9697-4E0D-9333-4C1BB32A6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>blue299@gmail.com</t>
-  </si>
-  <si>
-    <t>STT</t>
   </si>
   <si>
     <t>blue299</t>
@@ -419,58 +416,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E40D1DE-244C-42B8-97ED-ADAED0432D20}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="26.09765625" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{39DF870C-DC42-4E1B-AAF5-797254371C9B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{39DF870C-DC42-4E1B-AAF5-797254371C9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/BookingData.xlsx
+++ b/src/test/resources/BookingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\New folder (2)\Testing05_Nhom2-main\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA project\Testing05_Nhom2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596D87C-9697-4E0D-9333-4C1BB32A6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39022D75-B882-4DE4-9D2F-7B901736CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C03C9B1-B188-402C-8949-FC84BB5B4FF3}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>blue299@gmail.com</t>
-  </si>
-  <si>
-    <t>blue299</t>
-  </si>
-  <si>
     <t>Địa điểm</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>Phòng mùa hè</t>
+  </si>
+  <si>
+    <t>blue1234</t>
+  </si>
+  <si>
+    <t>blueair@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,24 +438,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
